--- a/Avaliação Interna.xlsx
+++ b/Avaliação Interna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiba\Desktop\LDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38DB1453-AB57-4B54-AC6E-583BE6C073D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E5764D-8A82-4D4A-B289-2F2221FED07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A4D1152D-4063-41DB-AE59-0E321C7C2451}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>André Oliveira</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Pontos Iniciais</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Pontos Totais:</t>
+  </si>
+  <si>
+    <t>Gonçalo Barbosa</t>
   </si>
 </sst>
 </file>
@@ -316,9 +316,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -331,17 +328,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,74 +694,74 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="15.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="15.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="15.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="15.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="8"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -771,38 +771,38 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="E3" s="12"/>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13">
         <v>20</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="H3" s="12"/>
+      <c r="I3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="13">
         <v>20</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="K3" s="12"/>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="13">
         <v>20</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="15">
+      <c r="N3" s="12"/>
+      <c r="O3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="13">
         <v>20</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -812,30 +812,30 @@
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -845,258 +845,258 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>-3</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="8"/>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>-1</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="8"/>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>-1</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9">
         <f>SUM(G5:G8,G3)</f>
         <v>20</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="9">
         <f>SUM(J5:J8,J3)</f>
         <v>20</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="9">
         <f>SUM(M5:M8,M3)</f>
         <v>20</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="10">
+      <c r="O11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="9">
         <f>SUM(P5:P8,P3)</f>
         <v>20</v>
       </c>
